--- a/Brick_data.xlsx
+++ b/Brick_data.xlsx
@@ -447,10 +447,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
